--- a/mercury/src/test/resources/testdata/manifest-import/test-manifest-missing-specimen.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/test-manifest-missing-specimen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="81">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -259,13 +259,19 @@
   </si>
   <si>
     <t>14-Oct-2012</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -289,8 +295,15 @@
       <color theme="11"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +320,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -330,7 +349,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,6 +364,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -752,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -767,7 +789,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -786,8 +808,11 @@
       <c r="F1" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -804,8 +829,11 @@
       <c r="F2" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -824,8 +852,11 @@
       <c r="F3" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -844,8 +875,11 @@
       <c r="F4" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -864,8 +898,11 @@
       <c r="F5" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -884,8 +921,11 @@
       <c r="F6" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -904,8 +944,11 @@
       <c r="F7" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -924,8 +967,11 @@
       <c r="F8" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -944,8 +990,11 @@
       <c r="F9" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -964,8 +1013,11 @@
       <c r="F10" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -984,8 +1036,11 @@
       <c r="F11" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1004,8 +1059,11 @@
       <c r="F12" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1024,8 +1082,11 @@
       <c r="F13" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1044,8 +1105,11 @@
       <c r="F14" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -1064,8 +1128,11 @@
       <c r="F15" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1084,8 +1151,11 @@
       <c r="F16" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1104,8 +1174,11 @@
       <c r="F17" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1124,8 +1197,11 @@
       <c r="F18" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1144,8 +1220,11 @@
       <c r="F19" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1164,8 +1243,11 @@
       <c r="F20" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -1184,8 +1266,11 @@
       <c r="F21" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1204,8 +1289,11 @@
       <c r="F22" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -1224,8 +1312,11 @@
       <c r="F23" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -1243,6 +1334,9 @@
       </c>
       <c r="F24" s="5" t="s">
         <v>74</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
